--- a/train_results_True_1024_SVR.xlsx
+++ b/train_results_True_1024_SVR.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3735093726205671</v>
+        <v>25.38415714949001</v>
       </c>
       <c r="C2">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7214260710568968</v>
+        <v>27.82308456159332</v>
       </c>
       <c r="C3">
-        <v>-1.678412484670001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.05708869164229109</v>
+        <v>23.16601965835277</v>
       </c>
       <c r="C4">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.6010914116790972</v>
+        <v>18.55211781545146</v>
       </c>
       <c r="C5">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.9810698711472793</v>
+        <v>15.88843456894201</v>
       </c>
       <c r="C6">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.3552031981434253</v>
+        <v>20.27581635306278</v>
       </c>
       <c r="C7">
-        <v>0.3187087719679989</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.005154507933617325</v>
+        <v>22.80195634997588</v>
       </c>
       <c r="C8">
-        <v>-2.819624631320286</v>
+        <v>2.999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.2220811465237577</v>
+        <v>21.20901393256918</v>
       </c>
       <c r="C9">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.428412041573767</v>
+        <v>25.76902980696637</v>
       </c>
       <c r="C10">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.472162704814498</v>
+        <v>26.0757258993215</v>
       </c>
       <c r="C11">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.3528210038779987</v>
+        <v>20.29251574955918</v>
       </c>
       <c r="C12">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0242383216526878</v>
+        <v>22.93573560407924</v>
       </c>
       <c r="C13">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3498531535467237</v>
+        <v>25.21832492176071</v>
       </c>
       <c r="C14">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.3944631839892467</v>
+        <v>20.00060031396921</v>
       </c>
       <c r="C15">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3436173263888485</v>
+        <v>25.17461121137879</v>
       </c>
       <c r="C16">
-        <v>0.3187087719679989</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6855360456678253</v>
+        <v>27.57149224901994</v>
       </c>
       <c r="C17">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1675865649503467</v>
+        <v>21.59102586073426</v>
       </c>
       <c r="C18">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.4055759612711425</v>
+        <v>19.92269874368176</v>
       </c>
       <c r="C19">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.8509756604908805</v>
+        <v>16.80040671041109</v>
       </c>
       <c r="C20">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5915975704242966</v>
+        <v>26.91297507133823</v>
       </c>
       <c r="C21">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.5927753213334682</v>
+        <v>18.61041435826369</v>
       </c>
       <c r="C22">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.365707258658896</v>
+        <v>20.2021819421687</v>
       </c>
       <c r="C23">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.2796080513811749</v>
+        <v>20.80574514489445</v>
       </c>
       <c r="C24">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1305855488188108</v>
+        <v>23.68123925107967</v>
       </c>
       <c r="C25">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.2962449660919835</v>
+        <v>20.68911887336629</v>
       </c>
       <c r="C26">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.628619592721108</v>
+        <v>27.17250278425632</v>
       </c>
       <c r="C27">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.1905326820128748</v>
+        <v>21.43017151210238</v>
       </c>
       <c r="C28">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.07225679130470884</v>
+        <v>23.27234940401445</v>
       </c>
       <c r="C29">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.2035667128928972</v>
+        <v>24.19284378868157</v>
       </c>
       <c r="C30">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5495365777845808</v>
+        <v>26.61812372217813</v>
       </c>
       <c r="C31">
-        <v>0.3187087719679989</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1865526727033466</v>
+        <v>24.07357383355892</v>
       </c>
       <c r="C32">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.04163444313805931</v>
+        <v>23.05768398352075</v>
       </c>
       <c r="C33">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.2234814318362809</v>
+        <v>24.33244776329287</v>
       </c>
       <c r="C34">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9466569432365157</v>
+        <v>29.40197327455153</v>
       </c>
       <c r="C35">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5755134021826509</v>
+        <v>26.80022360237529</v>
       </c>
       <c r="C36">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.043025412961373</v>
+        <v>30.07752493255111</v>
       </c>
       <c r="C37">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1738399497857038</v>
+        <v>23.98445650016945</v>
       </c>
       <c r="C38">
-        <v>-0.9651548930135722</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.8378343091061085</v>
+        <v>16.89252876798536</v>
       </c>
       <c r="C39">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1084596805129199</v>
+        <v>23.52613492015691</v>
       </c>
       <c r="C40">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.3624090639383852</v>
+        <v>20.22530258440997</v>
       </c>
       <c r="C41">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-1.012179285578654</v>
+        <v>15.67035477003564</v>
       </c>
       <c r="C42">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1086187874616963</v>
+        <v>23.52725027420738</v>
       </c>
       <c r="C43">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.4546154513287215</v>
+        <v>19.57892749868391</v>
       </c>
       <c r="C44">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.2729857323838915</v>
+        <v>20.85216819790328</v>
       </c>
       <c r="C45">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.3691343317539162</v>
+        <v>25.35348771871332</v>
       </c>
       <c r="C46">
-        <v>-2.106367039663857</v>
+        <v>8.000000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.2566469420027008</v>
+        <v>24.56494097860796</v>
       </c>
       <c r="C47">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.3093698899541466</v>
+        <v>20.59711197420604</v>
       </c>
       <c r="C48">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.3246002446249516</v>
+        <v>20.49034581532482</v>
       </c>
       <c r="C49">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.5200158191640158</v>
+        <v>19.12046502593678</v>
       </c>
       <c r="C50">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.2523386358341342</v>
+        <v>20.99690620554093</v>
       </c>
       <c r="C51">
-        <v>-1.678412484670001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.3602216461450987</v>
+        <v>20.24063658028239</v>
       </c>
       <c r="C52">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.006210232027391155</v>
+        <v>22.80935707102059</v>
       </c>
       <c r="C53">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9104471420497204</v>
+        <v>29.14813930481625</v>
       </c>
       <c r="C54">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.4901502666503088</v>
+        <v>19.32982524069698</v>
       </c>
       <c r="C55">
-        <v>-2.819624631320286</v>
+        <v>2.999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.6418088922321452</v>
+        <v>18.26668460710322</v>
       </c>
       <c r="C56">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.09390601766446341</v>
+        <v>23.42411243193734</v>
       </c>
       <c r="C57">
-        <v>-2.249018557995143</v>
+        <v>7.000000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1579970294383822</v>
+        <v>23.87339620068825</v>
       </c>
       <c r="C58">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.8153468617059648</v>
+        <v>17.05016780094623</v>
       </c>
       <c r="C59">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.5772884985195756</v>
+        <v>18.7189783819422</v>
       </c>
       <c r="C60">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.09879047820128424</v>
+        <v>22.07329262910678</v>
       </c>
       <c r="C61">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-1.067319191697551</v>
+        <v>15.28381905864669</v>
       </c>
       <c r="C62">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.07933580246622392</v>
+        <v>23.32197391025402</v>
       </c>
       <c r="C63">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-1.133509332574972</v>
+        <v>14.81982020569579</v>
       </c>
       <c r="C64">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.2346107146638932</v>
+        <v>24.41046503894336</v>
       </c>
       <c r="C65">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.1877662966775532</v>
+        <v>21.44956412262403</v>
       </c>
       <c r="C66">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.5244270575351803</v>
+        <v>19.08954184739115</v>
       </c>
       <c r="C67">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.2430082187286655</v>
+        <v>21.06231327035605</v>
       </c>
       <c r="C68">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1133462839873834</v>
+        <v>23.56039045091905</v>
       </c>
       <c r="C69">
-        <v>-0.9651548930135722</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.3794060226405792</v>
+        <v>20.10615237205316</v>
       </c>
       <c r="C70">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.05935240925246475</v>
+        <v>22.34975704680215</v>
       </c>
       <c r="C71">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1411313927547803</v>
+        <v>23.75516656751719</v>
       </c>
       <c r="C72">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.5018206718938368</v>
+        <v>26.2836309214781</v>
       </c>
       <c r="C73">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.1535697492065217</v>
+        <v>21.6892850023669</v>
       </c>
       <c r="C74">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.5944005868944193</v>
+        <v>18.59902110020403</v>
       </c>
       <c r="C75">
-        <v>-0.2518973013571441</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.05872125552371975</v>
+        <v>22.35418149132352</v>
       </c>
       <c r="C76">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.4306685416217684</v>
+        <v>25.7848480756704</v>
       </c>
       <c r="C77">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.3613802659246114</v>
+        <v>20.23251455120716</v>
       </c>
       <c r="C78">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.2332056861036396</v>
+        <v>24.40061566210749</v>
       </c>
       <c r="C79">
-        <v>-1.678412484670001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.2207277892449893</v>
+        <v>24.31314448055531</v>
       </c>
       <c r="C80">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.136252519446801</v>
+        <v>23.72096522591879</v>
       </c>
       <c r="C81">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.3662385292680482</v>
+        <v>20.19845768731767</v>
       </c>
       <c r="C82">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.005811274045526518</v>
+        <v>22.80656033961155</v>
       </c>
       <c r="C83">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5295593234317906</v>
+        <v>26.47808136871088</v>
       </c>
       <c r="C84">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.408474406298877</v>
+        <v>19.90238038281438</v>
       </c>
       <c r="C85">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.2313331086393475</v>
+        <v>21.14415684430389</v>
       </c>
       <c r="C86">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.05455426290250265</v>
+        <v>23.14825308447094</v>
       </c>
       <c r="C87">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.01606886462426661</v>
+        <v>22.65317859558426</v>
       </c>
       <c r="C88">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.1384661905708625</v>
+        <v>21.79516230961423</v>
       </c>
       <c r="C89">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.4554029361928355</v>
+        <v>25.95823841080602</v>
       </c>
       <c r="C90">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.7086981987327851</v>
+        <v>17.7977845401211</v>
       </c>
       <c r="C91">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.4695131137709608</v>
+        <v>19.4744935423089</v>
       </c>
       <c r="C92">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.3872986981622608</v>
+        <v>25.48082156430311</v>
       </c>
       <c r="C93">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.051563487369781</v>
+        <v>30.13737760364977</v>
       </c>
       <c r="C94">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-1.210483550928569</v>
+        <v>14.28022399771968</v>
       </c>
       <c r="C95">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.4225202063469973</v>
+        <v>25.72772751102384</v>
       </c>
       <c r="C96">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.3958217387511187</v>
+        <v>25.5405688469718</v>
       </c>
       <c r="C97">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-1.048921858093815</v>
+        <v>15.41278602527239</v>
       </c>
       <c r="C98">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.5797679630531892</v>
+        <v>18.70159711209931</v>
       </c>
       <c r="C99">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.1084069764300345</v>
+        <v>22.00588010983434</v>
       </c>
       <c r="C100">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.407433236306125</v>
+        <v>19.90967907829923</v>
       </c>
       <c r="C101">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.09433170989120443</v>
+        <v>22.10454899680786</v>
       </c>
       <c r="C102">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.395739902586523</v>
+        <v>25.53999516808248</v>
       </c>
       <c r="C103">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.1477286731644774</v>
+        <v>21.73023147184982</v>
       </c>
       <c r="C104">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.1025625984673921</v>
+        <v>23.48479584354201</v>
       </c>
       <c r="C105">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.372804489183105</v>
+        <v>32.38930597827311</v>
       </c>
       <c r="C106">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.7482796551707214</v>
+        <v>28.01133060641606</v>
       </c>
       <c r="C107">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.6686753519274858</v>
+        <v>18.07834830329362</v>
       </c>
       <c r="C108">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.6243967018960052</v>
+        <v>27.14289993898344</v>
       </c>
       <c r="C109">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.2415526011049914</v>
+        <v>21.07251728108585</v>
       </c>
       <c r="C110">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.1904040933391014</v>
+        <v>24.10057263932565</v>
       </c>
       <c r="C111">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.2637895798739856</v>
+        <v>24.61501151381739</v>
       </c>
       <c r="C112">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.4515210740157242</v>
+        <v>25.93102620709083</v>
       </c>
       <c r="C113">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.6320757980892556</v>
+        <v>27.19673109537826</v>
       </c>
       <c r="C114">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.2687477716390444</v>
+        <v>24.64976888494851</v>
       </c>
       <c r="C115">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.3359099690473559</v>
+        <v>20.4110636278325</v>
       </c>
       <c r="C116">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.02867260238081641</v>
+        <v>22.56482525799636</v>
       </c>
       <c r="C117">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.8641046034266388</v>
+        <v>16.70837163718272</v>
       </c>
       <c r="C118">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-1.54782742160245</v>
+        <v>11.91541306110943</v>
       </c>
       <c r="C119">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.2256372752120197</v>
+        <v>21.18408514996763</v>
       </c>
       <c r="C120">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.03747673121451567</v>
+        <v>22.5031075213982</v>
       </c>
       <c r="C121">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.1282356823265715</v>
+        <v>21.86687909443339</v>
       </c>
       <c r="C122">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.2276917042116476</v>
+        <v>24.36196215209586</v>
       </c>
       <c r="C123">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.143728411647393</v>
+        <v>23.77337190401127</v>
       </c>
       <c r="C124">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.7742902148351263</v>
+        <v>28.19366697387063</v>
       </c>
       <c r="C125">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.4233494780150152</v>
+        <v>19.79810478946533</v>
       </c>
       <c r="C126">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.4090311300344202</v>
+        <v>25.63316787036688</v>
       </c>
       <c r="C127">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.3724055534594924</v>
+        <v>25.37641927768895</v>
       </c>
       <c r="C128">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.1058729654550622</v>
+        <v>23.50800181447309</v>
       </c>
       <c r="C129">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.2610008237936902</v>
+        <v>24.59546208235729</v>
       </c>
       <c r="C130">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.02637126930158848</v>
+        <v>22.58095781028987</v>
       </c>
       <c r="C131">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.5951856429218974</v>
+        <v>18.59351778669807</v>
       </c>
       <c r="C132">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.03336170403984061</v>
+        <v>22.99969133685991</v>
       </c>
       <c r="C133">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.8872706693975569</v>
+        <v>28.98567014274018</v>
       </c>
       <c r="C134">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.3899397554811277</v>
+        <v>25.4993356141342</v>
       </c>
       <c r="C135">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.3699570119169932</v>
+        <v>25.35925478080071</v>
       </c>
       <c r="C136">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.5315766749594898</v>
+        <v>19.03942238488598</v>
       </c>
       <c r="C137">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.1859935004148895</v>
+        <v>24.06965398542132</v>
       </c>
       <c r="C138">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-0.6210660655504716</v>
+        <v>18.4120936915933</v>
       </c>
       <c r="C139">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.176234546769188</v>
+        <v>24.00124284083723</v>
       </c>
       <c r="C140">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.6555136649143383</v>
+        <v>27.3610326541647</v>
       </c>
       <c r="C141">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.2023761395480289</v>
+        <v>21.34714780738688</v>
       </c>
       <c r="C142">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.4999489893415103</v>
+        <v>19.26113531151974</v>
       </c>
       <c r="C143">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.8912874379675755</v>
+        <v>29.01382805242811</v>
       </c>
       <c r="C144">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.460930684917882</v>
+        <v>25.9969884275581</v>
       </c>
       <c r="C145">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.1017946786565858</v>
+        <v>23.47941265645933</v>
       </c>
       <c r="C146">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.4908751982972779</v>
+        <v>26.20690216510314</v>
       </c>
       <c r="C147">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.2025031557385171</v>
+        <v>21.3462574124442</v>
       </c>
       <c r="C148">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.071178647647</v>
+        <v>30.27488164501347</v>
       </c>
       <c r="C149">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.6149329192448734</v>
+        <v>27.07655796967363</v>
       </c>
       <c r="C150">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.3403482144250183</v>
+        <v>25.15169444188295</v>
       </c>
       <c r="C151">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.3611507922464476</v>
+        <v>25.29752238724781</v>
       </c>
       <c r="C152">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.08602414831854885</v>
+        <v>23.36885981746737</v>
       </c>
       <c r="C153">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.4825608578931848</v>
+        <v>19.38302768008146</v>
       </c>
       <c r="C154">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.4436462750080291</v>
+        <v>25.875823156329</v>
       </c>
       <c r="C155">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.03790091170073399</v>
+        <v>23.0315115916598</v>
       </c>
       <c r="C156">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.6163416443881686</v>
+        <v>18.44521230973048</v>
       </c>
       <c r="C157">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.2793662108366609</v>
+        <v>24.72420510071284</v>
       </c>
       <c r="C158">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.2004062270686439</v>
+        <v>24.17068849821412</v>
       </c>
       <c r="C159">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/train_results_True_1024_SVR.xlsx
+++ b/train_results_True_1024_SVR.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.38415714949001</v>
+        <v>0.3735093726205671</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.82308456159332</v>
+        <v>0.7214260710568968</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>-1.678412484670001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.16601965835277</v>
+        <v>0.05708869164229109</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.55211781545146</v>
+        <v>-0.6010914116790972</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.88843456894201</v>
+        <v>-0.9810698711472793</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>0.4613602902992845</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.27581635306278</v>
+        <v>-0.3552031981434253</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>0.3187087719679989</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.80195634997588</v>
+        <v>0.005154507933617325</v>
       </c>
       <c r="C8">
-        <v>2.999999999999999</v>
+        <v>-2.819624631320286</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.20901393256918</v>
+        <v>-0.2220811465237577</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>0.1760572536367133</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.76902980696637</v>
+        <v>0.428412041573767</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>-1.821064003001286</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.0757258993215</v>
+        <v>0.472162704814498</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>-1.821064003001286</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.29251574955918</v>
+        <v>-0.3528210038779987</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>-0.1092457830258584</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.93573560407924</v>
+        <v>0.0242383216526878</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.21832492176071</v>
+        <v>0.3498531535467237</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.00060031396921</v>
+        <v>-0.3944631839892467</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.17461121137879</v>
+        <v>0.3436173263888485</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>0.3187087719679989</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.57149224901994</v>
+        <v>0.6855360456678253</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>-1.535760966338715</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.59102586073426</v>
+        <v>-0.1675865649503467</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.92269874368176</v>
+        <v>-0.4055759612711425</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.80040671041109</v>
+        <v>-0.8509756604908805</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.91297507133823</v>
+        <v>0.5915975704242966</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>-1.393109448007429</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.61041435826369</v>
+        <v>-0.5927753213334682</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.2021819421687</v>
+        <v>-0.365707258658896</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.80574514489445</v>
+        <v>-0.2796080513811749</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>0.03340573530542768</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.68123925107967</v>
+        <v>0.1305855488188108</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>20.68911887336629</v>
+        <v>-0.2962449660919835</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>0.1760572536367133</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>27.17250278425632</v>
+        <v>0.628619592721108</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>21.43017151210238</v>
+        <v>-0.1905326820128748</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>23.27234940401445</v>
+        <v>0.07225679130470884</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>-0.1092457830258584</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>24.19284378868157</v>
+        <v>0.2035667128928972</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>-1.821064003001286</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>26.61812372217813</v>
+        <v>0.5495365777845808</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>0.3187087719679989</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>24.07357383355892</v>
+        <v>0.1865526727033466</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>-1.535760966338715</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>23.05768398352075</v>
+        <v>0.04163444313805931</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>-1.393109448007429</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>24.33244776329287</v>
+        <v>0.2234814318362809</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>29.40197327455153</v>
+        <v>0.9466569432365157</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>26.80022360237529</v>
+        <v>0.5755134021826509</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>30.07752493255111</v>
+        <v>1.043025412961373</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>-1.250457929676143</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>23.98445650016945</v>
+        <v>0.1738399497857038</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>-0.9651548930135722</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>16.89252876798536</v>
+        <v>-0.8378343091061085</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>-1.535760966338715</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>23.52613492015691</v>
+        <v>0.1084596805129199</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>-1.250457929676143</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>20.22530258440997</v>
+        <v>-0.3624090639383852</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>0.4613602902992845</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>15.67035477003564</v>
+        <v>-1.012179285578654</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>23.52725027420738</v>
+        <v>0.1086187874616963</v>
       </c>
       <c r="C43">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>19.57892749868391</v>
+        <v>-0.4546154513287215</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>20.85216819790328</v>
+        <v>-0.2729857323838915</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>25.35348771871332</v>
+        <v>0.3691343317539162</v>
       </c>
       <c r="C46">
-        <v>8.000000000000002</v>
+        <v>-2.106367039663857</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>24.56494097860796</v>
+        <v>0.2566469420027008</v>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>-1.535760966338715</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>20.59711197420604</v>
+        <v>-0.3093698899541466</v>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>20.49034581532482</v>
+        <v>-0.3246002446249516</v>
       </c>
       <c r="C49">
-        <v>13</v>
+        <v>-1.393109448007429</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>19.12046502593678</v>
+        <v>-0.5200158191640158</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>-1.393109448007429</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>20.99690620554093</v>
+        <v>-0.2523386358341342</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>-1.678412484670001</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>20.24063658028239</v>
+        <v>-0.3602216461450987</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>0.03340573530542768</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>22.80935707102059</v>
+        <v>0.006210232027391155</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>29.14813930481625</v>
+        <v>0.9104471420497204</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>19.32982524069698</v>
+        <v>-0.4901502666503088</v>
       </c>
       <c r="C55">
-        <v>2.999999999999999</v>
+        <v>-2.819624631320286</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>18.26668460710322</v>
+        <v>-0.6418088922321452</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>23.42411243193734</v>
+        <v>0.09390601766446341</v>
       </c>
       <c r="C57">
-        <v>7.000000000000002</v>
+        <v>-2.249018557995143</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>23.87339620068825</v>
+        <v>0.1579970294383822</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>-0.5372003380197153</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>17.05016780094623</v>
+        <v>-0.8153468617059648</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>0.03340573530542768</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>18.7189783819422</v>
+        <v>-0.5772884985195756</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>22.07329262910678</v>
+        <v>-0.09879047820128424</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>15.28381905864669</v>
+        <v>-1.067319191697551</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>23.32197391025402</v>
+        <v>0.07933580246622392</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>14.81982020569579</v>
+        <v>-1.133509332574972</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>24.41046503894336</v>
+        <v>0.2346107146638932</v>
       </c>
       <c r="C65">
-        <v>14</v>
+        <v>-1.250457929676143</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>21.44956412262403</v>
+        <v>-0.1877662966775532</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>0.1760572536367133</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>19.08954184739115</v>
+        <v>-0.5244270575351803</v>
       </c>
       <c r="C67">
-        <v>27</v>
+        <v>0.6040118086305701</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>21.06231327035605</v>
+        <v>-0.2430082187286655</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>23.56039045091905</v>
+        <v>0.1133462839873834</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>-0.9651548930135722</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>20.10615237205316</v>
+        <v>-0.3794060226405792</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>22.34975704680215</v>
+        <v>-0.05935240925246475</v>
       </c>
       <c r="C71">
-        <v>17</v>
+        <v>-0.8225033746822865</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>23.75516656751719</v>
+        <v>0.1411313927547803</v>
       </c>
       <c r="C72">
-        <v>23</v>
+        <v>0.03340573530542768</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>26.2836309214781</v>
+        <v>0.5018206718938368</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>-1.821064003001286</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>21.6892850023669</v>
+        <v>-0.1535697492065217</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>18.59902110020403</v>
+        <v>-0.5944005868944193</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>-0.2518973013571441</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>22.35418149132352</v>
+        <v>-0.05872125552371975</v>
       </c>
       <c r="C76">
-        <v>22</v>
+        <v>-0.1092457830258584</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>25.7848480756704</v>
+        <v>0.4306685416217684</v>
       </c>
       <c r="C77">
-        <v>18</v>
+        <v>-0.6798518563510009</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>20.23251455120716</v>
+        <v>-0.3613802659246114</v>
       </c>
       <c r="C78">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>24.40061566210749</v>
+        <v>0.2332056861036396</v>
       </c>
       <c r="C79">
-        <v>11</v>
+        <v>-1.678412484670001</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>24.31314448055531</v>
+        <v>0.2207277892449893</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>-1.821064003001286</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>23.72096522591879</v>
+        <v>0.136252519446801</v>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>-1.250457929676143</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>20.19845768731767</v>
+        <v>-0.3662385292680482</v>
       </c>
       <c r="C82">
-        <v>24</v>
+        <v>0.1760572536367133</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>22.80656033961155</v>
+        <v>0.005811274045526518</v>
       </c>
       <c r="C83">
-        <v>22</v>
+        <v>-0.1092457830258584</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>26.47808136871088</v>
+        <v>0.5295593234317906</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>-0.3945488196884297</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>19.90238038281438</v>
+        <v>-0.408474406298877</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>21.14415684430389</v>
+        <v>-0.2313331086393475</v>
       </c>
       <c r="C86">
-        <v>15</v>
+        <v>-1.107806411344858</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>23.14825308447094</v>
+        <v>0.05455426290250265</v>
       </c>
       <c r="C87">
-        <v>26</v>
+        <v>0.4613602902992845</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>22.65317859558426</v>
+        <v>-0.01606886462426661</v>
       </c>
       <c r="C88">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>21.79516230961423</v>
+        <v>-0.1384661905708625</v>
       </c>
       <c r="C89">
-        <v>27</v>
+        <v>0.6040118086305701</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>25.95823841080602</v>
+        <v>0.4554029361928355</v>
       </c>
       <c r="C90">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>17.7977845401211</v>
+        <v>-0.7086981987327851</v>
       </c>
       <c r="C91">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>19.4744935423089</v>
+        <v>-0.4695131137709608</v>
       </c>
       <c r="C92">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>25.48082156430311</v>
+        <v>0.3872986981622608</v>
       </c>
       <c r="C93">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>30.13737760364977</v>
+        <v>1.051563487369781</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>14.28022399771968</v>
+        <v>-1.210483550928569</v>
       </c>
       <c r="C95">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>25.72772751102384</v>
+        <v>0.4225202063469973</v>
       </c>
       <c r="C96">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>25.5405688469718</v>
+        <v>0.3958217387511187</v>
       </c>
       <c r="C97">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>15.41278602527239</v>
+        <v>-1.048921858093815</v>
       </c>
       <c r="C98">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>18.70159711209931</v>
+        <v>-0.5797679630531892</v>
       </c>
       <c r="C99">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>22.00588010983434</v>
+        <v>-0.1084069764300345</v>
       </c>
       <c r="C100">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>19.90967907829923</v>
+        <v>-0.407433236306125</v>
       </c>
       <c r="C101">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>22.10454899680786</v>
+        <v>-0.09433170989120443</v>
       </c>
       <c r="C102">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>25.53999516808248</v>
+        <v>0.395739902586523</v>
       </c>
       <c r="C103">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>21.73023147184982</v>
+        <v>-0.1477286731644774</v>
       </c>
       <c r="C104">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>23.48479584354201</v>
+        <v>0.1025625984673921</v>
       </c>
       <c r="C105">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>32.38930597827311</v>
+        <v>1.372804489183105</v>
       </c>
       <c r="C106">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>28.01133060641606</v>
+        <v>0.7482796551707214</v>
       </c>
       <c r="C107">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>18.07834830329362</v>
+        <v>-0.6686753519274858</v>
       </c>
       <c r="C108">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>27.14289993898344</v>
+        <v>0.6243967018960052</v>
       </c>
       <c r="C109">
-        <v>27</v>
+        <v>0.6040118086305701</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>21.07251728108585</v>
+        <v>-0.2415526011049914</v>
       </c>
       <c r="C110">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>24.10057263932565</v>
+        <v>0.1904040933391014</v>
       </c>
       <c r="C111">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>24.61501151381739</v>
+        <v>0.2637895798739856</v>
       </c>
       <c r="C112">
-        <v>27</v>
+        <v>0.6040118086305701</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>25.93102620709083</v>
+        <v>0.4515210740157242</v>
       </c>
       <c r="C113">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>27.19673109537826</v>
+        <v>0.6320757980892556</v>
       </c>
       <c r="C114">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>24.64976888494851</v>
+        <v>0.2687477716390444</v>
       </c>
       <c r="C115">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>20.4110636278325</v>
+        <v>-0.3359099690473559</v>
       </c>
       <c r="C116">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>22.56482525799636</v>
+        <v>-0.02867260238081641</v>
       </c>
       <c r="C117">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>16.70837163718272</v>
+        <v>-0.8641046034266388</v>
       </c>
       <c r="C118">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>11.91541306110943</v>
+        <v>-1.54782742160245</v>
       </c>
       <c r="C119">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>21.18408514996763</v>
+        <v>-0.2256372752120197</v>
       </c>
       <c r="C120">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>22.5031075213982</v>
+        <v>-0.03747673121451567</v>
       </c>
       <c r="C121">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>21.86687909443339</v>
+        <v>-0.1282356823265715</v>
       </c>
       <c r="C122">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>24.36196215209586</v>
+        <v>0.2276917042116476</v>
       </c>
       <c r="C123">
-        <v>26</v>
+        <v>0.4613602902992845</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>23.77337190401127</v>
+        <v>0.143728411647393</v>
       </c>
       <c r="C124">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>28.19366697387063</v>
+        <v>0.7742902148351263</v>
       </c>
       <c r="C125">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>19.79810478946533</v>
+        <v>-0.4233494780150152</v>
       </c>
       <c r="C126">
-        <v>27</v>
+        <v>0.6040118086305701</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>25.63316787036688</v>
+        <v>0.4090311300344202</v>
       </c>
       <c r="C127">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>25.37641927768895</v>
+        <v>0.3724055534594924</v>
       </c>
       <c r="C128">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>23.50800181447309</v>
+        <v>0.1058729654550622</v>
       </c>
       <c r="C129">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>24.59546208235729</v>
+        <v>0.2610008237936902</v>
       </c>
       <c r="C130">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>22.58095781028987</v>
+        <v>-0.02637126930158848</v>
       </c>
       <c r="C131">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>18.59351778669807</v>
+        <v>-0.5951856429218974</v>
       </c>
       <c r="C132">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>22.99969133685991</v>
+        <v>0.03336170403984061</v>
       </c>
       <c r="C133">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>28.98567014274018</v>
+        <v>0.8872706693975569</v>
       </c>
       <c r="C134">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>25.4993356141342</v>
+        <v>0.3899397554811277</v>
       </c>
       <c r="C135">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>25.35925478080071</v>
+        <v>0.3699570119169932</v>
       </c>
       <c r="C136">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>19.03942238488598</v>
+        <v>-0.5315766749594898</v>
       </c>
       <c r="C137">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>24.06965398542132</v>
+        <v>0.1859935004148895</v>
       </c>
       <c r="C138">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>18.4120936915933</v>
+        <v>-0.6210660655504716</v>
       </c>
       <c r="C139">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>24.00124284083723</v>
+        <v>0.176234546769188</v>
       </c>
       <c r="C140">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>27.3610326541647</v>
+        <v>0.6555136649143383</v>
       </c>
       <c r="C141">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>21.34714780738688</v>
+        <v>-0.2023761395480289</v>
       </c>
       <c r="C142">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>19.26113531151974</v>
+        <v>-0.4999489893415103</v>
       </c>
       <c r="C143">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>29.01382805242811</v>
+        <v>0.8912874379675755</v>
       </c>
       <c r="C144">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>25.9969884275581</v>
+        <v>0.460930684917882</v>
       </c>
       <c r="C145">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>23.47941265645933</v>
+        <v>0.1017946786565858</v>
       </c>
       <c r="C146">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>26.20690216510314</v>
+        <v>0.4908751982972779</v>
       </c>
       <c r="C147">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>21.3462574124442</v>
+        <v>-0.2025031557385171</v>
       </c>
       <c r="C148">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>30.27488164501347</v>
+        <v>1.071178647647</v>
       </c>
       <c r="C149">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>27.07655796967363</v>
+        <v>0.6149329192448734</v>
       </c>
       <c r="C150">
-        <v>26</v>
+        <v>0.4613602902992845</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>25.15169444188295</v>
+        <v>0.3403482144250183</v>
       </c>
       <c r="C151">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>25.29752238724781</v>
+        <v>0.3611507922464476</v>
       </c>
       <c r="C152">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>23.36885981746737</v>
+        <v>0.08602414831854885</v>
       </c>
       <c r="C153">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>19.38302768008146</v>
+        <v>-0.4825608578931848</v>
       </c>
       <c r="C154">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>25.875823156329</v>
+        <v>0.4436462750080291</v>
       </c>
       <c r="C155">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>23.0315115916598</v>
+        <v>0.03790091170073399</v>
       </c>
       <c r="C156">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>18.44521230973048</v>
+        <v>-0.6163416443881686</v>
       </c>
       <c r="C157">
-        <v>29</v>
+        <v>0.8893148452931414</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>24.72420510071284</v>
+        <v>0.2793662108366609</v>
       </c>
       <c r="C158">
-        <v>28</v>
+        <v>0.7466633269618558</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>24.17068849821412</v>
+        <v>0.2004062270686439</v>
       </c>
       <c r="C159">
-        <v>30</v>
+        <v>1.031966363624427</v>
       </c>
     </row>
   </sheetData>
